--- a/docs/us-core-careplan.xlsx
+++ b/docs/us-core-careplan.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="519">
   <si>
     <t>Path</t>
   </si>
@@ -338,10 +338,10 @@
     <t>CarePlan.text.status</t>
   </si>
   <si>
-    <t>generated | extensions | additional | empty</t>
-  </si>
-  <si>
-    <t>generated | additional.</t>
+    <t>generated | additional</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
   </si>
   <si>
     <t>required</t>
@@ -565,6 +565,9 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
   </si>
   <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/request-status</t>
   </si>
   <si>
@@ -617,13 +620,13 @@
     <t>Type of plan</t>
   </si>
   <si>
-    <t>Type of plan.</t>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
   </si>
   <si>
     <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
   </si>
   <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
     <t>example</t>
@@ -635,22 +638,202 @@
     <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>assessplan</t>
+  </si>
+  <si>
+    <t>Patient assessment and plan of treatment</t>
+  </si>
+  <si>
+    <t>CarePlan.category.id</t>
+  </si>
+  <si>
+    <t>CarePlan.category.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>assessplan</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/core/CodeSystem/careplan-category"/&gt;
-    &lt;code value="assess-plan"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.id</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CodeSystem/careplan-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>assess-plan</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CarePlan.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CarePlan.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>CarePlan.title</t>
@@ -688,10 +871,7 @@
 </t>
   </si>
   <si>
-    <t>Who the care plan is for</t>
-  </si>
-  <si>
-    <t>Who care plan is for.</t>
+    <t>Who care plan is for</t>
   </si>
   <si>
     <t>Identifies the patient or group whose intended care is described by the plan.</t>
@@ -1267,10 +1447,6 @@
   </si>
   <si>
     <t>CarePlan.activity.detail.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>If true, activity is prohibiting action</t>
@@ -1602,7 +1778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3974,7 +4150,7 @@
         <v>174</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4005,7 +4181,7 @@
         <v>173</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>44</v>
@@ -4041,21 +4217,21 @@
         <v>171</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4081,16 +4257,16 @@
         <v>70</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -4118,10 +4294,10 @@
         <v>105</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4139,7 +4315,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>51</v>
@@ -4154,10 +4330,10 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -4171,7 +4347,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4194,19 +4370,19 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4231,19 +4407,19 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -4253,7 +4429,7 @@
         <v>100</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4268,7 +4444,7 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4277,7 +4453,7 @@
         <v>44</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>44</v>
@@ -4285,10 +4461,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>44</v>
@@ -4310,19 +4486,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4332,7 +4508,7 @@
         <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>44</v>
@@ -4347,13 +4523,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4371,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4386,7 +4562,7 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4395,7 +4571,7 @@
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4403,7 +4579,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4423,16 +4599,16 @@
         <v>44</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4483,7 +4659,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4504,7 +4680,7 @@
         <v>44</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4515,18 +4691,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4535,21 +4711,21 @@
         <v>44</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>44</v>
       </c>
@@ -4585,25 +4761,25 @@
         <v>44</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4618,10 +4794,10 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4629,11 +4805,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4652,17 +4828,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4711,13 +4889,13 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>44</v>
@@ -4726,24 +4904,24 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4763,20 +4941,18 @@
         <v>44</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>44</v>
@@ -4825,7 +5001,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4843,32 +5019,32 @@
         <v>44</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>228</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
@@ -4877,23 +5053,21 @@
         <v>44</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4929,25 +5103,25 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -4959,35 +5133,35 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>239</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -4996,22 +5170,26 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>44</v>
@@ -5053,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5068,24 +5246,24 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5108,16 +5286,16 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5167,7 +5345,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5185,21 +5363,21 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>44</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5207,39 +5385,39 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>44</v>
@@ -5281,13 +5459,13 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
@@ -5296,24 +5474,24 @@
         <v>44</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>44</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5324,7 +5502,7 @@
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>44</v>
@@ -5333,20 +5511,20 @@
         <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5395,13 +5573,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5413,21 +5591,21 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5438,7 +5616,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>44</v>
@@ -5450,19 +5628,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5511,13 +5689,13 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>44</v>
@@ -5529,21 +5707,21 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>274</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5554,7 +5732,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>44</v>
@@ -5563,22 +5741,22 @@
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5627,13 +5805,13 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>44</v>
@@ -5645,21 +5823,21 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5670,7 +5848,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>44</v>
@@ -5679,23 +5857,19 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
@@ -5743,13 +5917,13 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>44</v>
@@ -5764,18 +5938,18 @@
         <v>44</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5786,7 +5960,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -5795,20 +5969,20 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5857,68 +6031,68 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>89</v>
+        <v>276</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5969,10 +6143,10 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>51</v>
@@ -5984,35 +6158,35 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>44</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>44</v>
@@ -6021,19 +6195,19 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6083,13 +6257,13 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>44</v>
@@ -6101,56 +6275,56 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>286</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6199,13 +6373,13 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
@@ -6217,32 +6391,32 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>44</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>44</v>
@@ -6251,20 +6425,18 @@
         <v>44</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>190</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6289,13 +6461,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>311</v>
+        <v>44</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6313,31 +6485,31 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AL41" t="s" s="2">
-        <v>44</v>
+        <v>307</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6345,7 +6517,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6356,7 +6528,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>44</v>
@@ -6365,23 +6537,21 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6429,13 +6599,13 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>44</v>
@@ -6447,13 +6617,13 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6461,7 +6631,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6484,20 +6654,18 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6545,7 +6713,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6566,18 +6734,18 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6588,7 +6756,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6600,19 +6768,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6661,16 +6827,16 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>44</v>
@@ -6679,13 +6845,13 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -6693,7 +6859,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6704,7 +6870,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>44</v>
@@ -6713,20 +6879,22 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6775,39 +6943,39 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6818,7 +6986,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -6830,16 +6998,20 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>338</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>88</v>
+        <v>339</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -6887,13 +7059,13 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>90</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
@@ -6905,10 +7077,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -6919,11 +7091,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6942,18 +7114,20 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>94</v>
+        <v>345</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>346</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7001,7 +7175,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7022,22 +7196,22 @@
         <v>44</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>91</v>
+        <v>350</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>44</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7050,25 +7224,23 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7117,7 +7289,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7129,16 +7301,16 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>44</v>
+        <v>358</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>109</v>
+        <v>359</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7149,7 +7321,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7172,18 +7344,16 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>88</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>89</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7207,13 +7377,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>349</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7231,7 +7401,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7252,7 +7422,7 @@
         <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7263,11 +7433,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7286,18 +7456,18 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>352</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7345,7 +7515,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7363,10 +7533,10 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7377,11 +7547,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7394,25 +7564,25 @@
         <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -7461,7 +7631,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7479,10 +7649,10 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7493,7 +7663,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7504,7 +7674,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7516,20 +7686,18 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
@@ -7553,13 +7721,13 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>44</v>
@@ -7577,13 +7745,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7595,21 +7763,21 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7632,18 +7800,20 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7667,13 +7837,13 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>371</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
@@ -7691,7 +7861,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7709,10 +7879,10 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7723,7 +7893,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7746,18 +7916,20 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -7805,7 +7977,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7823,21 +7995,21 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7848,7 +8020,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>44</v>
@@ -7860,17 +8032,19 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -7919,16 +8093,16 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>44</v>
@@ -7937,10 +8111,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7951,7 +8125,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7959,7 +8133,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>51</v>
@@ -7968,25 +8142,23 @@
         <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>44</v>
@@ -8011,13 +8183,13 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>388</v>
+        <v>44</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8035,39 +8207,39 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>392</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8090,17 +8262,15 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>394</v>
+        <v>88</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8149,7 +8319,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>393</v>
+        <v>90</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8167,10 +8337,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>397</v>
+        <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8181,49 +8351,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>399</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8267,13 +8433,13 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>44</v>
@@ -8285,10 +8451,10 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8299,40 +8465,42 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
@@ -8381,13 +8549,13 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>44</v>
@@ -8399,21 +8567,21 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>236</v>
+        <v>44</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8436,19 +8604,17 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>414</v>
+        <v>70</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8473,13 +8639,13 @@
         <v>44</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>44</v>
@@ -8497,7 +8663,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8518,18 +8684,18 @@
         <v>44</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>420</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8552,19 +8718,17 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>423</v>
+        <v>144</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8613,7 +8777,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8631,21 +8795,21 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>426</v>
+        <v>146</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>427</v>
+        <v>147</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>428</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8656,7 +8820,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>44</v>
@@ -8668,16 +8832,20 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>431</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8701,13 +8869,13 @@
         <v>44</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>44</v>
@@ -8725,13 +8893,13 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>44</v>
@@ -8743,25 +8911,25 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>147</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>436</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>438</v>
+        <v>44</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8780,17 +8948,19 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -8815,13 +8985,13 @@
         <v>44</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>44</v>
@@ -8839,7 +9009,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8857,21 +9027,21 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8882,7 +9052,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>44</v>
@@ -8894,15 +9064,17 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8927,13 +9099,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>432</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -8951,13 +9123,13 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>44</v>
@@ -8969,21 +9141,21 @@
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>44</v>
+        <v>434</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>448</v>
+        <v>44</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>449</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8994,7 +9166,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>44</v>
@@ -9006,15 +9178,17 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9063,13 +9237,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9081,21 +9255,21 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>453</v>
+        <v>44</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>326</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9118,17 +9292,17 @@
         <v>44</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9177,7 +9351,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9195,20 +9369,1278 @@
         <v>44</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>326</v>
+      <c r="AL68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Q69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN66">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9218,7 +10650,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
